--- a/biology/Zoologie/Conus_gibsonsmithorum/Conus_gibsonsmithorum.xlsx
+++ b/biology/Zoologie/Conus_gibsonsmithorum/Conus_gibsonsmithorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus gibsonsmithorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 20 mm et 46 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique se trouve dans la mer des Caraïbes au large de la Colombie jusqu'au Venezuela.
 </t>
@@ -576,13 +592,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus gibsonsmithorum a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d)[1],[2].
-Synonymes
-Conus (Dauciconus) gibsonsmithorum Petuch, 1986 · appellation alternative
-Gradiconus gibsonsmithorum (Petuch, 1986) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gibsonsmithorum dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus gibsonsmithorum a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_gibsonsmithorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gibsonsmithorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) gibsonsmithorum Petuch, 1986 · appellation alternative
+Gradiconus gibsonsmithorum (Petuch, 1986) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_gibsonsmithorum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gibsonsmithorum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gibsonsmithorum dans les principales bases sont les suivants :
 CoL : XXGK - GBIF : 6511390 - IRMNG : 11830683 - WoRMS : 429561
 </t>
         </is>
